--- a/Exercicio Dashboard/Exercicio Dashboard.xlsx
+++ b/Exercicio Dashboard/Exercicio Dashboard.xlsx
@@ -5,30 +5,23 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c25c0728370278ad/Área de Trabalho/PI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c25c0728370278ad/Área de Trabalho/Mateus-Git/meu-primeiro-repo/Exercicio Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF3D32B4-59E1-4374-A606-1B6FA94AF4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{DF3D32B4-59E1-4374-A606-1B6FA94AF4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{069E3928-62F1-479C-8127-08BF0B303A72}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ECD6306E-FCF6-45D2-AFC9-4D2E0AF297B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dia 01-01-2024" sheetId="1" r:id="rId1"/>
-    <sheet name="Dia 02-01-2024" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Dia 01-01-2024'!$B$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Dia 01-01-2024'!$C$4:$X$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Dia 01-01-2024'!$C$4:$X$8</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Dia 01-01-2024'!$C$9:$X$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Dia 01-01-2024'!$C$5:$X$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Dia 01-01-2024'!$B$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Dia 01-01-2024'!$C$8:$X$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Dia 01-01-2024'!$C$9:$X$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Dia 01-01-2024'!$B$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Dia 01-01-2024'!$C$8:$X$8</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Dia 01-01-2024'!$C$9:$X$9</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Dia 01-01-2024'!$B$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Dia 01-01-2024'!$B$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Dia 01-01-2024'!$C$8:$X$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Dia 01-01-2024'!$C$9:$X$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Dia 01-01-2024'!$B$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Dia 01-01-2024'!$C$4:$X$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Dia 01-01-2024'!$C$5:$X$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,13 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>Dados</t>
-  </si>
-  <si>
-    <t>Sensor Temperatura</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Avião</t>
   </si>
@@ -1212,10 +1199,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.1</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1253,7 +1240,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D8689C82-7D04-4694-AC87-B52EDBBA8545}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>Temperatura - Motor 1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1283,10 +1270,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1324,7 +1311,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{673FB2ED-F210-4EBB-9A54-6EB72A6FBF5D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Temperatura - Motor 2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4323,8 +4310,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10758054" y="6664036"/>
-              <a:ext cx="6767945" cy="4017818"/>
+              <a:off x="10790612" y="6766560"/>
+              <a:ext cx="6797040" cy="4078778"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4688,21 +4675,21 @@
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>45</v>
@@ -4716,7 +4703,7 @@
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>45292.5</v>
@@ -4787,7 +4774,7 @@
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>85</v>
@@ -4858,7 +4845,7 @@
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>45292.5</v>
@@ -4929,7 +4916,7 @@
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>80</v>
@@ -5002,99 +4989,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8DEB19-BF77-4F8C-A91B-A3D425DD6873}">
-  <dimension ref="B2:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:M3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="13" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45293.5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45293.541666666664</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45293.583333333336</v>
-      </c>
-      <c r="F2" s="1">
-        <v>45293.625</v>
-      </c>
-      <c r="G2" s="1">
-        <v>45293.666666666664</v>
-      </c>
-      <c r="H2" s="1">
-        <v>45293.708333333336</v>
-      </c>
-      <c r="I2" s="1">
-        <v>45293.75</v>
-      </c>
-      <c r="J2" s="1">
-        <v>45293.791666666664</v>
-      </c>
-      <c r="K2" s="1">
-        <v>45293.833333333336</v>
-      </c>
-      <c r="L2" s="1">
-        <v>45293.875</v>
-      </c>
-      <c r="M2" s="1">
-        <v>45293.916666666664</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>70</v>
-      </c>
-      <c r="E3">
-        <v>90</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>110</v>
-      </c>
-      <c r="H3">
-        <v>112</v>
-      </c>
-      <c r="I3">
-        <v>120</v>
-      </c>
-      <c r="J3">
-        <v>118</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <v>90</v>
-      </c>
-      <c r="M3">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>